--- a/07.Cartogram/data/draw_korea_raw(2021).xlsx
+++ b/07.Cartogram/data/draw_korea_raw(2021).xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\88.DataAnalysis\07.Cartogram\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="지도(2205)" sheetId="2" r:id="rId1"/>
+    <sheet name="시트1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="290">
   <si>
     <t>철원</t>
   </si>
@@ -191,593 +187,755 @@
     <t>이천</t>
   </si>
   <si>
+    <t>울진</t>
+  </si>
+  <si>
+    <t>인천 계양</t>
+  </si>
+  <si>
+    <t>안산 상록</t>
+  </si>
+  <si>
+    <t>서울 양천</t>
+  </si>
+  <si>
+    <t>서울 관악</t>
+  </si>
+  <si>
+    <t>서울 서초</t>
+  </si>
+  <si>
+    <t>과천</t>
+  </si>
+  <si>
+    <t>성남 중원</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>영덕</t>
+  </si>
+  <si>
+    <t>인천 부평</t>
+  </si>
+  <si>
+    <t>안산 단원</t>
+  </si>
+  <si>
+    <t>서울 영등포</t>
+  </si>
+  <si>
+    <t>서울 금천</t>
+  </si>
+  <si>
+    <t>서울 강남</t>
+  </si>
+  <si>
+    <t>성남 분당</t>
+  </si>
+  <si>
+    <t>성남 수정</t>
+  </si>
+  <si>
+    <t>용인 수지</t>
+  </si>
+  <si>
+    <t>문경</t>
+  </si>
+  <si>
+    <t>봉화</t>
+  </si>
+  <si>
+    <t>울릉</t>
+  </si>
+  <si>
+    <t>인천 중구</t>
+  </si>
+  <si>
+    <t>인천 미추홀</t>
+  </si>
+  <si>
+    <t>화성</t>
+  </si>
+  <si>
+    <t>서울 구로</t>
+  </si>
+  <si>
+    <t>군포</t>
+  </si>
+  <si>
+    <t>의왕</t>
+  </si>
+  <si>
+    <t>수원 영통</t>
+  </si>
+  <si>
+    <t>용인 처인</t>
+  </si>
+  <si>
+    <t>안동</t>
+  </si>
+  <si>
+    <t>영양</t>
+  </si>
+  <si>
+    <t>인천 옹진</t>
+  </si>
+  <si>
+    <t>인천 연수</t>
+  </si>
+  <si>
+    <t>인천 남동</t>
+  </si>
+  <si>
+    <t>오산</t>
+  </si>
+  <si>
+    <t>안성</t>
+  </si>
+  <si>
+    <t>수원 권선</t>
+  </si>
+  <si>
+    <t>수원 장안</t>
+  </si>
+  <si>
+    <t>제천</t>
+  </si>
+  <si>
+    <t>예천</t>
+  </si>
+  <si>
+    <t>영주</t>
+  </si>
+  <si>
+    <t>구미</t>
+  </si>
+  <si>
+    <t>청송</t>
+  </si>
+  <si>
+    <t>포항 북구</t>
+  </si>
+  <si>
+    <t>태안</t>
+  </si>
+  <si>
+    <t>아산</t>
+  </si>
+  <si>
+    <t>천안 동남</t>
+  </si>
+  <si>
+    <t>천안 서북</t>
+  </si>
+  <si>
+    <t>평택</t>
+  </si>
+  <si>
+    <t>음성</t>
+  </si>
+  <si>
+    <t>수원 팔달</t>
+  </si>
+  <si>
+    <t>단양</t>
+  </si>
+  <si>
+    <t>상주</t>
+  </si>
+  <si>
+    <t>김천</t>
+  </si>
+  <si>
+    <t>군위</t>
+  </si>
+  <si>
+    <t>의성</t>
+  </si>
+  <si>
+    <t>포항 남구</t>
+  </si>
+  <si>
+    <t>당진</t>
+  </si>
+  <si>
+    <t>홍성</t>
+  </si>
+  <si>
+    <t>예산</t>
+  </si>
+  <si>
+    <t>공주</t>
+  </si>
+  <si>
+    <t>진천</t>
+  </si>
+  <si>
+    <t>충주</t>
+  </si>
+  <si>
+    <t>청주 흥덕</t>
+  </si>
+  <si>
+    <t>괴산</t>
+  </si>
+  <si>
+    <t>칠곡</t>
+  </si>
+  <si>
+    <t>영천</t>
+  </si>
+  <si>
+    <t>경산</t>
+  </si>
+  <si>
+    <t>경주</t>
+  </si>
+  <si>
+    <t>서산</t>
+  </si>
+  <si>
+    <t>보령</t>
+  </si>
+  <si>
+    <t>청양</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>대전 대덕</t>
+  </si>
+  <si>
+    <t>증평</t>
+  </si>
+  <si>
+    <t>청주 청원</t>
+  </si>
+  <si>
+    <t>보은</t>
+  </si>
+  <si>
+    <t>고령</t>
+  </si>
+  <si>
+    <t>청도</t>
+  </si>
+  <si>
+    <t>성주</t>
+  </si>
+  <si>
+    <t>울산 북구</t>
+  </si>
+  <si>
+    <t>부여</t>
+  </si>
+  <si>
+    <t>논산</t>
+  </si>
+  <si>
+    <t>계룡</t>
+  </si>
+  <si>
+    <t>대전 동구</t>
+  </si>
+  <si>
+    <t>청주 상당</t>
+  </si>
+  <si>
+    <t>청주 서원</t>
+  </si>
+  <si>
+    <t>대구 북구</t>
+  </si>
+  <si>
+    <t>대구 중구</t>
+  </si>
+  <si>
+    <t>대구 수성</t>
+  </si>
+  <si>
+    <t>울산 울주</t>
+  </si>
+  <si>
+    <t>울산 동구</t>
+  </si>
+  <si>
+    <t>서천</t>
+  </si>
+  <si>
+    <t>금산</t>
+  </si>
+  <si>
+    <t>대전 유성</t>
+  </si>
+  <si>
+    <t>대전 중구</t>
+  </si>
+  <si>
+    <t>옥천</t>
+  </si>
+  <si>
+    <t>영동</t>
+  </si>
+  <si>
+    <t>대구 서구</t>
+  </si>
+  <si>
+    <t>대구 남구</t>
+  </si>
+  <si>
+    <t>대구 동구</t>
+  </si>
+  <si>
+    <t>울산 중구</t>
+  </si>
+  <si>
+    <t>울산 남구</t>
+  </si>
+  <si>
+    <t>군산</t>
+  </si>
+  <si>
+    <t>익산</t>
+  </si>
+  <si>
+    <t>대전 서구</t>
+  </si>
+  <si>
+    <t>무주</t>
+  </si>
+  <si>
+    <t>거창</t>
+  </si>
+  <si>
+    <t>합천</t>
+  </si>
+  <si>
+    <t>대구 달서</t>
+  </si>
+  <si>
+    <t>대구 달성</t>
+  </si>
+  <si>
+    <t>부산 금정</t>
+  </si>
+  <si>
+    <t>부산 동래</t>
+  </si>
+  <si>
+    <t>부산 기장</t>
+  </si>
+  <si>
+    <t>부안</t>
+  </si>
+  <si>
+    <t>김제</t>
+  </si>
+  <si>
+    <t>완주</t>
+  </si>
+  <si>
+    <t>장수</t>
+  </si>
+  <si>
+    <t>함양</t>
+  </si>
+  <si>
+    <t>창녕</t>
+  </si>
+  <si>
+    <t>밀양</t>
+  </si>
+  <si>
+    <t>부산 북구</t>
+  </si>
+  <si>
+    <t>부산 부산진</t>
+  </si>
+  <si>
+    <t>부산 연제</t>
+  </si>
+  <si>
+    <t>부산 해운대</t>
+  </si>
+  <si>
+    <t>고창</t>
+  </si>
+  <si>
+    <t>정읍</t>
+  </si>
+  <si>
+    <t>전주 덕진</t>
+  </si>
+  <si>
+    <t>진안</t>
+  </si>
+  <si>
+    <t>남원</t>
+  </si>
+  <si>
+    <t>진주</t>
+  </si>
+  <si>
+    <t>의령</t>
+  </si>
+  <si>
+    <t>부산 강서</t>
+  </si>
+  <si>
+    <t>부산 사상</t>
+  </si>
+  <si>
+    <t>부산 동구</t>
+  </si>
+  <si>
+    <t>부산 중구</t>
+  </si>
+  <si>
+    <t>영광</t>
+  </si>
+  <si>
+    <t>장성</t>
+  </si>
+  <si>
+    <t>전주 완산</t>
+  </si>
+  <si>
+    <t>임실</t>
+  </si>
+  <si>
+    <t>산청</t>
+  </si>
+  <si>
+    <t>함안</t>
+  </si>
+  <si>
+    <t>양산</t>
+  </si>
+  <si>
+    <t>창원 합포</t>
+  </si>
+  <si>
+    <t>부산 서구</t>
+  </si>
+  <si>
+    <t>부산 사하</t>
+  </si>
+  <si>
+    <t>부산 남구</t>
+  </si>
+  <si>
+    <t>함평</t>
+  </si>
+  <si>
+    <t>담양</t>
+  </si>
+  <si>
+    <t>순창</t>
+  </si>
+  <si>
+    <t>구례</t>
+  </si>
+  <si>
+    <t>하동</t>
+  </si>
+  <si>
+    <t>창원 의창</t>
+  </si>
+  <si>
+    <t>창원 성산</t>
+  </si>
+  <si>
+    <t>창원 진해</t>
+  </si>
+  <si>
+    <t>김해</t>
+  </si>
+  <si>
+    <t>부산 영도</t>
+  </si>
+  <si>
+    <t>부산 수영</t>
+  </si>
+  <si>
+    <t>신안</t>
+  </si>
+  <si>
+    <t>무안</t>
+  </si>
+  <si>
+    <t>광주 광산</t>
+  </si>
+  <si>
+    <t>곡성</t>
+  </si>
+  <si>
+    <t>화순</t>
+  </si>
+  <si>
+    <t>광양</t>
+  </si>
+  <si>
+    <t>사천</t>
+  </si>
+  <si>
+    <t>창원 회원</t>
+  </si>
+  <si>
+    <t>통영</t>
+  </si>
+  <si>
+    <t>목포</t>
+  </si>
+  <si>
+    <t>나주</t>
+  </si>
+  <si>
+    <t>광주 서구</t>
+  </si>
+  <si>
+    <t>광주 북구</t>
+  </si>
+  <si>
+    <t>순천</t>
+  </si>
+  <si>
+    <t>고흥</t>
+  </si>
+  <si>
+    <t>남해</t>
+  </si>
+  <si>
+    <t>거제</t>
+  </si>
+  <si>
+    <t>해남</t>
+  </si>
+  <si>
+    <t>영암</t>
+  </si>
+  <si>
+    <t>광주 남구</t>
+  </si>
+  <si>
+    <t>광주 동구</t>
+  </si>
+  <si>
+    <t>여수</t>
+  </si>
+  <si>
+    <t>진도</t>
+  </si>
+  <si>
+    <t>강진</t>
+  </si>
+  <si>
+    <t>장흥</t>
+  </si>
+  <si>
+    <t>보성</t>
+  </si>
+  <si>
+    <t>완도</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>서귀포</t>
+  </si>
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 기흥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성(경남)</t>
+  </si>
+  <si>
+    <t>고성(강원)</t>
+  </si>
+  <si>
     <t>평창</t>
-  </si>
-  <si>
-    <t>울진</t>
-  </si>
-  <si>
-    <t>인천 계양</t>
-  </si>
-  <si>
-    <t>안산 상록</t>
-  </si>
-  <si>
-    <t>서울 양천</t>
-  </si>
-  <si>
-    <t>서울 관악</t>
-  </si>
-  <si>
-    <t>서울 서초</t>
-  </si>
-  <si>
-    <t>과천</t>
-  </si>
-  <si>
-    <t>성남 중원</t>
-  </si>
-  <si>
-    <t>광주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>영월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>영덕</t>
-  </si>
-  <si>
-    <t>인천 부평</t>
-  </si>
-  <si>
-    <t>안산 단원</t>
-  </si>
-  <si>
-    <t>서울 영등포</t>
-  </si>
-  <si>
-    <t>서울 금천</t>
-  </si>
-  <si>
-    <t>서울 강남</t>
-  </si>
-  <si>
-    <t>성남 분당</t>
-  </si>
-  <si>
-    <t>성남 수정</t>
-  </si>
-  <si>
-    <t>용인 수지</t>
-  </si>
-  <si>
-    <t>문경</t>
-  </si>
-  <si>
-    <t>봉화</t>
-  </si>
-  <si>
-    <t>울릉</t>
-  </si>
-  <si>
-    <t>인천 중구</t>
-  </si>
-  <si>
-    <t>인천 미추홀</t>
-  </si>
-  <si>
-    <t>화성</t>
-  </si>
-  <si>
-    <t>서울 구로</t>
-  </si>
-  <si>
-    <t>군포</t>
-  </si>
-  <si>
-    <t>의왕</t>
-  </si>
-  <si>
-    <t>수원 영통</t>
-  </si>
-  <si>
-    <t>용인 처인</t>
-  </si>
-  <si>
-    <t>안동</t>
-  </si>
-  <si>
-    <t>영양</t>
-  </si>
-  <si>
-    <t>인천 옹진</t>
-  </si>
-  <si>
-    <t>인천 연수</t>
-  </si>
-  <si>
-    <t>인천 남동</t>
-  </si>
-  <si>
-    <t>오산</t>
-  </si>
-  <si>
-    <t>안성</t>
-  </si>
-  <si>
-    <t>수원 권선</t>
-  </si>
-  <si>
-    <t>수원 장안</t>
-  </si>
-  <si>
-    <t>제천</t>
-  </si>
-  <si>
-    <t>예천</t>
-  </si>
-  <si>
-    <t>영주</t>
-  </si>
-  <si>
-    <t>구미</t>
-  </si>
-  <si>
-    <t>청송</t>
-  </si>
-  <si>
-    <t>포항 북구</t>
-  </si>
-  <si>
-    <t>태안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 동구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 수성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 북구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 서구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 남구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 중구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 수영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 동래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 중구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>함안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원 의창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원 합포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원 진해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아산</t>
-  </si>
-  <si>
-    <t>천안 동남</t>
-  </si>
-  <si>
-    <t>천안 서북</t>
-  </si>
-  <si>
-    <t>평택</t>
-  </si>
-  <si>
-    <t>음성</t>
-  </si>
-  <si>
-    <t>수원 팔달</t>
-  </si>
-  <si>
-    <t>단양</t>
-  </si>
-  <si>
-    <t>상주</t>
-  </si>
-  <si>
-    <t>김천</t>
-  </si>
-  <si>
-    <t>군위</t>
-  </si>
-  <si>
-    <t>의성</t>
-  </si>
-  <si>
-    <t>포항 남구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>당진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>예산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보령</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공주</t>
-  </si>
-  <si>
-    <t>진천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>충주</t>
-  </si>
-  <si>
-    <t>청주 흥덕</t>
-  </si>
-  <si>
-    <t>괴산</t>
-  </si>
-  <si>
-    <t>칠곡</t>
-  </si>
-  <si>
-    <t>영천</t>
-  </si>
-  <si>
-    <t>경산</t>
-  </si>
-  <si>
-    <t>경주</t>
-  </si>
-  <si>
-    <t>서산</t>
-  </si>
-  <si>
-    <t>보령</t>
-  </si>
-  <si>
-    <t>청양</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>대전 대덕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>증평</t>
-  </si>
-  <si>
-    <t>청주 청원</t>
-  </si>
-  <si>
-    <t>보은</t>
-  </si>
-  <si>
-    <t>고령</t>
-  </si>
-  <si>
-    <t>청도</t>
-  </si>
-  <si>
-    <t>성주</t>
-  </si>
-  <si>
-    <t>울산 북구</t>
-  </si>
-  <si>
-    <t>부여</t>
-  </si>
-  <si>
-    <t>논산</t>
-  </si>
-  <si>
-    <t>계룡</t>
-  </si>
-  <si>
-    <t>대전 동구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>청주 상당</t>
-  </si>
-  <si>
-    <t>청주 서원</t>
-  </si>
-  <si>
-    <t>대구 북구</t>
-  </si>
-  <si>
-    <t>대구 중구</t>
-  </si>
-  <si>
-    <t>대구 수성</t>
-  </si>
-  <si>
-    <t>울산 울주</t>
-  </si>
-  <si>
-    <t>울산 동구</t>
-  </si>
-  <si>
-    <t>서천</t>
-  </si>
-  <si>
-    <t>금산</t>
-  </si>
-  <si>
-    <t>대전 유성</t>
-  </si>
-  <si>
-    <t>대전 중구</t>
-  </si>
-  <si>
-    <t>옥천</t>
-  </si>
-  <si>
-    <t>영동</t>
-  </si>
-  <si>
-    <t>대구 서구</t>
-  </si>
-  <si>
-    <t>대구 남구</t>
-  </si>
-  <si>
-    <t>대구 동구</t>
-  </si>
-  <si>
-    <t>울산 중구</t>
-  </si>
-  <si>
-    <t>울산 남구</t>
-  </si>
-  <si>
-    <t>군산</t>
-  </si>
-  <si>
-    <t>익산</t>
-  </si>
-  <si>
-    <t>대전 서구</t>
-  </si>
-  <si>
-    <t>무주</t>
-  </si>
-  <si>
-    <t>거창</t>
-  </si>
-  <si>
-    <t>합천</t>
-  </si>
-  <si>
-    <t>대구 달서</t>
-  </si>
-  <si>
-    <t>대구 달성</t>
-  </si>
-  <si>
-    <t>부산 금정</t>
-  </si>
-  <si>
-    <t>부산 동래</t>
-  </si>
-  <si>
-    <t>부산 기장</t>
-  </si>
-  <si>
-    <t>부안</t>
-  </si>
-  <si>
-    <t>김제</t>
-  </si>
-  <si>
-    <t>완주</t>
-  </si>
-  <si>
-    <t>장수</t>
-  </si>
-  <si>
-    <t>함양</t>
-  </si>
-  <si>
-    <t>창녕</t>
-  </si>
-  <si>
-    <t>밀양</t>
-  </si>
-  <si>
-    <t>부산 북구</t>
-  </si>
-  <si>
-    <t>부산 부산진</t>
-  </si>
-  <si>
-    <t>부산 연제</t>
-  </si>
-  <si>
-    <t>부산 해운대</t>
-  </si>
-  <si>
-    <t>고창</t>
-  </si>
-  <si>
-    <t>정읍</t>
-  </si>
-  <si>
-    <t>전주 덕진</t>
-  </si>
-  <si>
-    <t>진안</t>
-  </si>
-  <si>
-    <t>남원</t>
-  </si>
-  <si>
-    <t>진주</t>
-  </si>
-  <si>
-    <t>의령</t>
-  </si>
-  <si>
-    <t>부산 강서</t>
-  </si>
-  <si>
-    <t>부산 사상</t>
-  </si>
-  <si>
-    <t>부산 동구</t>
-  </si>
-  <si>
-    <t>부산 중구</t>
-  </si>
-  <si>
-    <t>영광</t>
-  </si>
-  <si>
-    <t>장성</t>
-  </si>
-  <si>
-    <t>전주 완산</t>
-  </si>
-  <si>
-    <t>임실</t>
-  </si>
-  <si>
-    <t>산청</t>
-  </si>
-  <si>
-    <t>함안</t>
-  </si>
-  <si>
-    <t>양산</t>
-  </si>
-  <si>
-    <t>창원 합포</t>
-  </si>
-  <si>
-    <t>부산 서구</t>
-  </si>
-  <si>
-    <t>부산 사하</t>
-  </si>
-  <si>
-    <t>부산 남구</t>
-  </si>
-  <si>
-    <t>함평</t>
-  </si>
-  <si>
-    <t>담양</t>
-  </si>
-  <si>
-    <t>순창</t>
-  </si>
-  <si>
-    <t>구례</t>
-  </si>
-  <si>
-    <t>하동</t>
-  </si>
-  <si>
-    <t>창원 의창</t>
-  </si>
-  <si>
-    <t>창원 성산</t>
-  </si>
-  <si>
-    <t>창원 진해</t>
-  </si>
-  <si>
-    <t>김해</t>
-  </si>
-  <si>
-    <t>부산 영도</t>
-  </si>
-  <si>
-    <t>부산 수영</t>
-  </si>
-  <si>
-    <t>신안</t>
-  </si>
-  <si>
-    <t>무안</t>
-  </si>
-  <si>
-    <t>광주 광산</t>
-  </si>
-  <si>
-    <t>곡성</t>
-  </si>
-  <si>
-    <t>화순</t>
-  </si>
-  <si>
-    <t>광양</t>
-  </si>
-  <si>
-    <t>사천</t>
-  </si>
-  <si>
-    <t>창원 회원</t>
-  </si>
-  <si>
-    <t>통영</t>
-  </si>
-  <si>
-    <t>목포</t>
-  </si>
-  <si>
-    <t>나주</t>
-  </si>
-  <si>
-    <t>광주 서구</t>
-  </si>
-  <si>
-    <t>광주 북구</t>
-  </si>
-  <si>
-    <t>순천</t>
-  </si>
-  <si>
-    <t>고흥</t>
-  </si>
-  <si>
-    <t>남해</t>
-  </si>
-  <si>
-    <t>거제</t>
-  </si>
-  <si>
-    <t>해남</t>
-  </si>
-  <si>
-    <t>영암</t>
-  </si>
-  <si>
-    <t>광주 남구</t>
-  </si>
-  <si>
-    <t>광주 동구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>여수</t>
-  </si>
-  <si>
-    <t>진도</t>
-  </si>
-  <si>
-    <t>강진</t>
-  </si>
-  <si>
-    <t>장흥</t>
-  </si>
-  <si>
-    <t>보성</t>
-  </si>
-  <si>
-    <t>완도</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>서귀포</t>
-  </si>
-  <si>
-    <t>춘천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하남</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>용인 기흥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고성(경남)</t>
-  </si>
-  <si>
-    <t>고성(강원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1087,7 +1245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1122,7 +1280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,7 +1492,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1397,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1418,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>8</v>
@@ -1484,7 +1642,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>24</v>
@@ -1520,7 +1678,7 @@
         <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>34</v>
@@ -1576,7 +1734,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>50</v>
@@ -1591,13 +1749,13 @@
         <v>53</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -1605,341 +1763,341 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.1" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1">
       <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="I13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="J14" s="8" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="I17" s="10" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="M17" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1947,37 +2105,37 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="G18" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="I18" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="J18" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="K18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="N18" s="4"/>
     </row>
@@ -1985,178 +2143,178 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="J19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="I20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="F21" s="13" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="K21" s="6" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="35.1" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="J22" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="K22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="L22" s="6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="35.1" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>222</v>
+      <c r="H23" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2165,31 +2323,31 @@
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2199,19 +2357,19 @@
     </row>
     <row r="25" spans="1:14" ht="35.1" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2225,16 +2383,16 @@
     </row>
     <row r="26" spans="1:14" ht="35.1" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2250,12 +2408,12 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2272,7 +2430,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="F28" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2297,4 +2455,974 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="14" width="7.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="35.1" customHeight="1">
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="35.1" customHeight="1">
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="33" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="33" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>